--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd34-Sell.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd34-Sell.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>250.7027893333334</v>
+        <v>260.1928506666666</v>
       </c>
       <c r="H2">
-        <v>752.108368</v>
+        <v>780.5785519999999</v>
       </c>
       <c r="I2">
-        <v>0.8058600807320525</v>
+        <v>0.8191301249666345</v>
       </c>
       <c r="J2">
-        <v>0.8058600807320525</v>
+        <v>0.8191301249666346</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2056386666666667</v>
+        <v>0.353079</v>
       </c>
       <c r="N2">
-        <v>0.616916</v>
+        <v>1.059237</v>
       </c>
       <c r="O2">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="P2">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="Q2">
-        <v>51.5541873281209</v>
+        <v>91.86863152053598</v>
       </c>
       <c r="R2">
-        <v>463.987685953088</v>
+        <v>826.8176836848239</v>
       </c>
       <c r="S2">
-        <v>0.003373661728059303</v>
+        <v>0.01139247097334903</v>
       </c>
       <c r="T2">
-        <v>0.003373661728059303</v>
+        <v>0.01139247097334904</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>250.7027893333334</v>
+        <v>260.1928506666666</v>
       </c>
       <c r="H3">
-        <v>752.108368</v>
+        <v>780.5785519999999</v>
       </c>
       <c r="I3">
-        <v>0.8058600807320525</v>
+        <v>0.8191301249666345</v>
       </c>
       <c r="J3">
-        <v>0.8058600807320525</v>
+        <v>0.8191301249666346</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.974950666666667</v>
+        <v>24.359095</v>
       </c>
       <c r="N3">
-        <v>8.924852</v>
+        <v>73.077285</v>
       </c>
       <c r="O3">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="P3">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="Q3">
-        <v>745.8284302623929</v>
+        <v>6338.062367710146</v>
       </c>
       <c r="R3">
-        <v>6712.455872361536</v>
+        <v>57042.56130939132</v>
       </c>
       <c r="S3">
-        <v>0.04880637172806918</v>
+        <v>0.7859722122373509</v>
       </c>
       <c r="T3">
-        <v>0.04880637172806918</v>
+        <v>0.785972212237351</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>250.7027893333334</v>
+        <v>260.1928506666666</v>
       </c>
       <c r="H4">
-        <v>752.108368</v>
+        <v>780.5785519999999</v>
       </c>
       <c r="I4">
-        <v>0.8058600807320525</v>
+        <v>0.8191301249666345</v>
       </c>
       <c r="J4">
-        <v>0.8058600807320525</v>
+        <v>0.8191301249666346</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>45.939923</v>
+        <v>0.6745613333333332</v>
       </c>
       <c r="N4">
-        <v>137.819769</v>
+        <v>2.023684</v>
       </c>
       <c r="O4">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="P4">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="Q4">
-        <v>11517.26683785855</v>
+        <v>175.5160362695075</v>
       </c>
       <c r="R4">
-        <v>103655.401540727</v>
+        <v>1579.644326425568</v>
       </c>
       <c r="S4">
-        <v>0.7536800472759241</v>
+        <v>0.02176544175593457</v>
       </c>
       <c r="T4">
-        <v>0.7536800472759241</v>
+        <v>0.02176544175593457</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>168.095093</v>
       </c>
       <c r="I5">
-        <v>0.1801085202334059</v>
+        <v>0.1763970508574364</v>
       </c>
       <c r="J5">
-        <v>0.1801085202334059</v>
+        <v>0.1763970508574364</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2056386666666667</v>
+        <v>0.353079</v>
       </c>
       <c r="N5">
-        <v>0.616916</v>
+        <v>1.059237</v>
       </c>
       <c r="O5">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="P5">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="Q5">
-        <v>11.52228359924311</v>
+        <v>19.783615780449</v>
       </c>
       <c r="R5">
-        <v>103.700552393188</v>
+        <v>178.052542024041</v>
       </c>
       <c r="S5">
-        <v>0.000754008339830982</v>
+        <v>0.002453332163506469</v>
       </c>
       <c r="T5">
-        <v>0.000754008339830982</v>
+        <v>0.002453332163506469</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>168.095093</v>
       </c>
       <c r="I6">
-        <v>0.1801085202334059</v>
+        <v>0.1763970508574364</v>
       </c>
       <c r="J6">
-        <v>0.1801085202334059</v>
+        <v>0.1763970508574364</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.974950666666667</v>
+        <v>24.359095</v>
       </c>
       <c r="N6">
-        <v>8.924852</v>
+        <v>73.077285</v>
       </c>
       <c r="O6">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="P6">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="Q6">
-        <v>166.6915363279151</v>
+        <v>1364.881446473612</v>
       </c>
       <c r="R6">
-        <v>1500.223826951236</v>
+        <v>12283.93301826251</v>
       </c>
       <c r="S6">
-        <v>0.01090815093101365</v>
+        <v>0.169256600470177</v>
       </c>
       <c r="T6">
-        <v>0.01090815093101365</v>
+        <v>0.169256600470177</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>168.095093</v>
       </c>
       <c r="I7">
-        <v>0.1801085202334059</v>
+        <v>0.1763970508574364</v>
       </c>
       <c r="J7">
-        <v>0.1801085202334059</v>
+        <v>0.1763970508574364</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>45.939923</v>
+        <v>0.6745613333333332</v>
       </c>
       <c r="N7">
-        <v>137.819769</v>
+        <v>2.023684</v>
       </c>
       <c r="O7">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="P7">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="Q7">
-        <v>2574.091876365947</v>
+        <v>37.79681668695689</v>
       </c>
       <c r="R7">
-        <v>23166.82688729352</v>
+        <v>340.171350182612</v>
       </c>
       <c r="S7">
-        <v>0.1684463609625613</v>
+        <v>0.004687118223752971</v>
       </c>
       <c r="T7">
-        <v>0.1684463609625613</v>
+        <v>0.004687118223752971</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3995106666666666</v>
+        <v>0.6130636666666667</v>
       </c>
       <c r="H8">
-        <v>1.198532</v>
+        <v>1.839191</v>
       </c>
       <c r="I8">
-        <v>0.001284188735791261</v>
+        <v>0.00193002581201784</v>
       </c>
       <c r="J8">
-        <v>0.001284188735791261</v>
+        <v>0.00193002581201784</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2056386666666667</v>
+        <v>0.353079</v>
       </c>
       <c r="N8">
-        <v>0.616916</v>
+        <v>1.059237</v>
       </c>
       <c r="O8">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="P8">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="Q8">
-        <v>0.08215484081244444</v>
+        <v>0.216459906363</v>
       </c>
       <c r="R8">
-        <v>0.739393567312</v>
+        <v>1.948139157267</v>
       </c>
       <c r="S8">
-        <v>5.376142202760828E-06</v>
+        <v>2.684282065944439E-05</v>
       </c>
       <c r="T8">
-        <v>5.376142202760829E-06</v>
+        <v>2.684282065944439E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3995106666666666</v>
+        <v>0.6130636666666667</v>
       </c>
       <c r="H9">
-        <v>1.198532</v>
+        <v>1.839191</v>
       </c>
       <c r="I9">
-        <v>0.001284188735791261</v>
+        <v>0.00193002581201784</v>
       </c>
       <c r="J9">
-        <v>0.001284188735791261</v>
+        <v>0.00193002581201784</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.974950666666667</v>
+        <v>24.359095</v>
       </c>
       <c r="N9">
-        <v>8.924852</v>
+        <v>73.077285</v>
       </c>
       <c r="O9">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="P9">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="Q9">
-        <v>1.188524524140444</v>
+        <v>14.93367609738167</v>
       </c>
       <c r="R9">
-        <v>10.696720717264</v>
+        <v>134.403084876435</v>
       </c>
       <c r="S9">
-        <v>7.777602378702187E-05</v>
+        <v>0.001851899485699712</v>
       </c>
       <c r="T9">
-        <v>7.777602378702188E-05</v>
+        <v>0.001851899485699712</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3995106666666666</v>
+        <v>0.6130636666666667</v>
       </c>
       <c r="H10">
-        <v>1.198532</v>
+        <v>1.839191</v>
       </c>
       <c r="I10">
-        <v>0.001284188735791261</v>
+        <v>0.00193002581201784</v>
       </c>
       <c r="J10">
-        <v>0.001284188735791261</v>
+        <v>0.00193002581201784</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>45.939923</v>
+        <v>0.6745613333333332</v>
       </c>
       <c r="N10">
-        <v>137.819769</v>
+        <v>2.023684</v>
       </c>
       <c r="O10">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="P10">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="Q10">
-        <v>18.35348926434533</v>
+        <v>0.4135490444048888</v>
       </c>
       <c r="R10">
-        <v>165.181403379108</v>
+        <v>3.721941399644</v>
       </c>
       <c r="S10">
-        <v>0.001201036569801478</v>
+        <v>5.128350565868362E-05</v>
       </c>
       <c r="T10">
-        <v>0.001201036569801478</v>
+        <v>5.128350565868362E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.848924333333333</v>
+        <v>0.5097843333333333</v>
       </c>
       <c r="H11">
-        <v>11.546773</v>
+        <v>1.529353</v>
       </c>
       <c r="I11">
-        <v>0.01237199826232313</v>
+        <v>0.001604885390199778</v>
       </c>
       <c r="J11">
-        <v>0.01237199826232313</v>
+        <v>0.001604885390199778</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2056386666666667</v>
+        <v>0.353079</v>
       </c>
       <c r="N11">
-        <v>0.616916</v>
+        <v>1.059237</v>
       </c>
       <c r="O11">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="P11">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="Q11">
-        <v>0.7914876680075555</v>
+        <v>0.179994142629</v>
       </c>
       <c r="R11">
-        <v>7.123389012068</v>
+        <v>1.619947283661</v>
       </c>
       <c r="S11">
-        <v>5.179427301982698E-05</v>
+        <v>2.232076402286834E-05</v>
       </c>
       <c r="T11">
-        <v>5.179427301982699E-05</v>
+        <v>2.232076402286835E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.848924333333333</v>
+        <v>0.5097843333333333</v>
       </c>
       <c r="H12">
-        <v>11.546773</v>
+        <v>1.529353</v>
       </c>
       <c r="I12">
-        <v>0.01237199826232313</v>
+        <v>0.001604885390199778</v>
       </c>
       <c r="J12">
-        <v>0.01237199826232313</v>
+        <v>0.001604885390199778</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.974950666666667</v>
+        <v>24.359095</v>
       </c>
       <c r="N12">
-        <v>8.924852</v>
+        <v>73.077285</v>
       </c>
       <c r="O12">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="P12">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="Q12">
-        <v>11.45036001139955</v>
+        <v>12.41788500517833</v>
       </c>
       <c r="R12">
-        <v>103.053240102596</v>
+        <v>111.760965046605</v>
       </c>
       <c r="S12">
-        <v>0.0007493017220327384</v>
+        <v>0.00153992055972072</v>
       </c>
       <c r="T12">
-        <v>0.0007493017220327385</v>
+        <v>0.00153992055972072</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.848924333333333</v>
+        <v>0.5097843333333333</v>
       </c>
       <c r="H13">
-        <v>11.546773</v>
+        <v>1.529353</v>
       </c>
       <c r="I13">
-        <v>0.01237199826232313</v>
+        <v>0.001604885390199778</v>
       </c>
       <c r="J13">
-        <v>0.01237199826232313</v>
+        <v>0.001604885390199778</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>45.939923</v>
+        <v>0.6745613333333332</v>
       </c>
       <c r="N13">
-        <v>137.819769</v>
+        <v>2.023684</v>
       </c>
       <c r="O13">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="P13">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="Q13">
-        <v>176.8192875061597</v>
+        <v>0.3438807996057777</v>
       </c>
       <c r="R13">
-        <v>1591.373587555437</v>
+        <v>3.094927196452</v>
       </c>
       <c r="S13">
-        <v>0.01157090226727056</v>
+        <v>4.264406645618904E-05</v>
       </c>
       <c r="T13">
-        <v>0.01157090226727056</v>
+        <v>4.264406645618904E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1167283333333333</v>
+        <v>0.2979236666666666</v>
       </c>
       <c r="H14">
-        <v>0.350185</v>
+        <v>0.893771</v>
       </c>
       <c r="I14">
-        <v>0.0003752120364271147</v>
+        <v>0.0009379129737112659</v>
       </c>
       <c r="J14">
-        <v>0.0003752120364271147</v>
+        <v>0.000937912973711266</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2056386666666667</v>
+        <v>0.353079</v>
       </c>
       <c r="N14">
-        <v>0.616916</v>
+        <v>1.059237</v>
       </c>
       <c r="O14">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="P14">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="Q14">
-        <v>0.02400385882888889</v>
+        <v>0.105190590303</v>
       </c>
       <c r="R14">
-        <v>0.21603472946</v>
+        <v>0.9467153127269999</v>
       </c>
       <c r="S14">
-        <v>1.570791899818946E-06</v>
+        <v>1.304450416711058E-05</v>
       </c>
       <c r="T14">
-        <v>1.570791899818946E-06</v>
+        <v>1.304450416711058E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1167283333333333</v>
+        <v>0.2979236666666666</v>
       </c>
       <c r="H15">
-        <v>0.350185</v>
+        <v>0.893771</v>
       </c>
       <c r="I15">
-        <v>0.0003752120364271147</v>
+        <v>0.0009379129737112659</v>
       </c>
       <c r="J15">
-        <v>0.0003752120364271147</v>
+        <v>0.000937912973711266</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.974950666666667</v>
+        <v>24.359095</v>
       </c>
       <c r="N15">
-        <v>8.924852</v>
+        <v>73.077285</v>
       </c>
       <c r="O15">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="P15">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="Q15">
-        <v>0.3472610330688888</v>
+        <v>7.257150899081666</v>
       </c>
       <c r="R15">
-        <v>3.12534929762</v>
+        <v>65.314358091735</v>
       </c>
       <c r="S15">
-        <v>2.272446366877001E-05</v>
+        <v>0.0008999468001057623</v>
       </c>
       <c r="T15">
-        <v>2.272446366877001E-05</v>
+        <v>0.0008999468001057625</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1167283333333333</v>
+        <v>0.2979236666666666</v>
       </c>
       <c r="H16">
-        <v>0.350185</v>
+        <v>0.893771</v>
       </c>
       <c r="I16">
-        <v>0.0003752120364271147</v>
+        <v>0.0009379129737112659</v>
       </c>
       <c r="J16">
-        <v>0.0003752120364271147</v>
+        <v>0.000937912973711266</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>45.939923</v>
+        <v>0.6745613333333332</v>
       </c>
       <c r="N16">
-        <v>137.819769</v>
+        <v>2.023684</v>
       </c>
       <c r="O16">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="P16">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="Q16">
-        <v>5.362490645251667</v>
+        <v>0.2009677858182222</v>
       </c>
       <c r="R16">
-        <v>48.262415807265</v>
+        <v>1.808710072364</v>
       </c>
       <c r="S16">
-        <v>0.0003509167808585257</v>
+        <v>2.492166943839292E-05</v>
       </c>
       <c r="T16">
-        <v>0.0003509167808585257</v>
+        <v>2.492166943839292E-05</v>
       </c>
     </row>
   </sheetData>
